--- a/big_fit/fitness_scores.xlsx
+++ b/big_fit/fitness_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>CAGE#</t>
   </si>
@@ -25,16 +25,10 @@
     <t>fitness_score</t>
   </si>
   <si>
-    <t>CAGE3356</t>
+    <t>CAGE3056</t>
   </si>
   <si>
-    <t>CAGE3234</t>
-  </si>
-  <si>
-    <t>hCYP7B1</t>
-  </si>
-  <si>
-    <t>hCLC</t>
+    <t>mGas6</t>
   </si>
 </sst>
 </file>
@@ -392,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,24 +411,122 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>0.03</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>0.04</v>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/fitness_scores.xlsx
+++ b/big_fit/fitness_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>CAGE#</t>
   </si>
@@ -22,13 +22,28 @@
     <t>Gene</t>
   </si>
   <si>
+    <t>Guide_Name</t>
+  </si>
+  <si>
     <t>fitness_score</t>
   </si>
   <si>
     <t>CAGE3056</t>
   </si>
   <si>
+    <t>CAGE3057</t>
+  </si>
+  <si>
     <t>mGas6</t>
+  </si>
+  <si>
+    <t>mMertk</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>g11</t>
   </si>
 </sst>
 </file>
@@ -386,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,131 +417,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0.62</v>
+      <c r="E3">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/fitness_scores.xlsx
+++ b/big_fit/fitness_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>CAGE#</t>
   </si>
@@ -25,10 +25,25 @@
     <t>Guide</t>
   </si>
   <si>
+    <t>Replicate</t>
+  </si>
+  <si>
+    <t>init_oof</t>
+  </si>
+  <si>
+    <t>final_oof</t>
+  </si>
+  <si>
     <t>fitness_score</t>
   </si>
   <si>
-    <t>Comparison_Group</t>
+    <t>avg_fit_score</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>CAGE3267</t>
   </si>
   <si>
     <t>CAGE3269</t>
@@ -37,19 +52,22 @@
     <t>hFGFR3</t>
   </si>
   <si>
+    <t>g46</t>
+  </si>
+  <si>
     <t>g9</t>
   </si>
   <si>
-    <t>CAGE3267_RT112-g46_init_tp</t>
-  </si>
-  <si>
-    <t>CAGE3267_RT112-g46_final_tp</t>
-  </si>
-  <si>
-    <t>CAGE3269_RT112-g9_init_tp</t>
-  </si>
-  <si>
-    <t>CAGE3269_RT112-g9_final_tp</t>
+    <t>CAGE3267_RT112-g46_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3267_RT112-g46_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3269_RT112-g9_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3269_RT112-g9_rep2</t>
   </si>
 </sst>
 </file>
@@ -407,59 +425,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>59.2</v>
+      </c>
+      <c r="G2">
+        <v>58</v>
+      </c>
+      <c r="H2">
+        <v>0.98</v>
+      </c>
+      <c r="I2">
+        <v>0.865</v>
+      </c>
+      <c r="J2">
+        <v>0.1626345596729059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>52.5</v>
+      </c>
+      <c r="H3">
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <v>0.865</v>
+      </c>
+      <c r="J3">
+        <v>0.1626345596729059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>4.3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>0.7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="I4">
+        <v>0.74</v>
+      </c>
+      <c r="J4">
+        <v>0.05656854249492385</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="E4" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>5.4</v>
+      </c>
+      <c r="G5">
+        <v>4.2</v>
+      </c>
+      <c r="H5">
+        <v>0.78</v>
+      </c>
+      <c r="I5">
+        <v>0.74</v>
+      </c>
+      <c r="J5">
+        <v>0.05656854249492385</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/fitness_scores.xlsx
+++ b/big_fit/fitness_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>CAGE#</t>
   </si>
@@ -25,22 +25,10 @@
     <t>Guide</t>
   </si>
   <si>
-    <t>Replicate</t>
-  </si>
-  <si>
-    <t>init_oof</t>
-  </si>
-  <si>
-    <t>final_oof</t>
-  </si>
-  <si>
     <t>fitness_score</t>
   </si>
   <si>
-    <t>avg_fit_score</t>
-  </si>
-  <si>
-    <t>stdev</t>
+    <t>Comparison_Group</t>
   </si>
   <si>
     <t>CAGE3267</t>
@@ -58,16 +46,10 @@
     <t>g9</t>
   </si>
   <si>
-    <t>CAGE3267_RT112-g46_rep1</t>
-  </si>
-  <si>
-    <t>CAGE3267_RT112-g46_rep2</t>
-  </si>
-  <si>
-    <t>CAGE3269_RT112-g9_rep1</t>
-  </si>
-  <si>
-    <t>CAGE3269_RT112-g9_rep2</t>
+    <t>CAGE3267_RT112-g46</t>
+  </si>
+  <si>
+    <t>CAGE3269_RT112-g9</t>
   </si>
 </sst>
 </file>
@@ -425,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,145 +429,45 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>0.98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>59.2</v>
-      </c>
-      <c r="G2">
-        <v>58</v>
-      </c>
-      <c r="H2">
-        <v>0.98</v>
-      </c>
-      <c r="I2">
-        <v>0.865</v>
-      </c>
-      <c r="J2">
-        <v>0.1626345596729059</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>70</v>
-      </c>
-      <c r="G3">
-        <v>52.5</v>
-      </c>
-      <c r="H3">
-        <v>0.75</v>
-      </c>
-      <c r="I3">
-        <v>0.865</v>
-      </c>
-      <c r="J3">
-        <v>0.1626345596729059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>4.3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>0.7</v>
-      </c>
-      <c r="I4">
-        <v>0.74</v>
-      </c>
-      <c r="J4">
-        <v>0.05656854249492385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>5.4</v>
-      </c>
-      <c r="G5">
-        <v>4.2</v>
-      </c>
-      <c r="H5">
-        <v>0.78</v>
-      </c>
-      <c r="I5">
-        <v>0.74</v>
-      </c>
-      <c r="J5">
-        <v>0.05656854249492385</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/fitness_scores.xlsx
+++ b/big_fit/fitness_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>CAGE#</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>CAGE3267</t>
-  </si>
-  <si>
-    <t>CAGE3269</t>
   </si>
   <si>
     <t>hFGFR3</t>
@@ -438,16 +435,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2">
         <v>0.98</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +452,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>0.7</v>
+        <v>0.96</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/fitness_scores.xlsx
+++ b/big_fit/fitness_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>CAGE#</t>
   </si>
@@ -31,28 +31,25 @@
     <t>fitness_score</t>
   </si>
   <si>
-    <t>CAGE3525</t>
-  </si>
-  <si>
-    <t>hH2AZ2</t>
-  </si>
-  <si>
-    <t>g14</t>
-  </si>
-  <si>
-    <t>g5</t>
+    <t>CAGE3721</t>
+  </si>
+  <si>
+    <t>hH2AZ2-Pseudo</t>
   </si>
   <si>
     <t>g6</t>
   </si>
   <si>
-    <t>CAGE3525_g14</t>
-  </si>
-  <si>
-    <t>CAGE3525_g5</t>
-  </si>
-  <si>
-    <t>CAGE3525_g6</t>
+    <t>CAGE3721_G402-g6</t>
+  </si>
+  <si>
+    <t>CAGE3721_TTC642-g6</t>
+  </si>
+  <si>
+    <t>CAGE3721_GIMEN-g6</t>
+  </si>
+  <si>
+    <t>CAGE3721_KD-g6</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,10 +444,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>0.71</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,13 +461,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,13 +481,33 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>0.34</v>
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/fitness_scores.xlsx
+++ b/big_fit/fitness_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>CAGE#</t>
   </si>
@@ -25,31 +25,19 @@
     <t>Guide</t>
   </si>
   <si>
-    <t>Comparison_Group</t>
-  </si>
-  <si>
     <t>fitness_score</t>
   </si>
   <si>
-    <t>CAGE3721</t>
-  </si>
-  <si>
-    <t>hH2AZ2-Pseudo</t>
-  </si>
-  <si>
-    <t>g6</t>
-  </si>
-  <si>
-    <t>CAGE3721_G402-g6</t>
-  </si>
-  <si>
-    <t>CAGE3721_TTC642-g6</t>
-  </si>
-  <si>
-    <t>CAGE3721_GIMEN-g6</t>
-  </si>
-  <si>
-    <t>CAGE3721_KD-g6</t>
+    <t>CAGE3526</t>
+  </si>
+  <si>
+    <t>hH2AZ2</t>
+  </si>
+  <si>
+    <t>g14</t>
+  </si>
+  <si>
+    <t>g4</t>
   </si>
 </sst>
 </file>
@@ -407,32 +395,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -440,74 +425,22 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>1.18</v>
+      <c r="D2">
+        <v>1.08</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
+      <c r="D3">
         <v>1.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/fitness_scores.xlsx
+++ b/big_fit/fitness_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>CAGE#</t>
   </si>
@@ -25,19 +25,28 @@
     <t>Guide</t>
   </si>
   <si>
+    <t>Comparison_Group</t>
+  </si>
+  <si>
     <t>fitness_score</t>
   </si>
   <si>
-    <t>CAGE3526</t>
-  </si>
-  <si>
-    <t>hH2AZ2</t>
-  </si>
-  <si>
-    <t>g14</t>
-  </si>
-  <si>
-    <t>g4</t>
+    <t>CAGE3726</t>
+  </si>
+  <si>
+    <t>mDcaf7</t>
+  </si>
+  <si>
+    <t>g12</t>
+  </si>
+  <si>
+    <t>g20</t>
+  </si>
+  <si>
+    <t>CAGE3726.g12</t>
+  </si>
+  <si>
+    <t>CAGE3726.g20</t>
   </si>
 </sst>
 </file>
@@ -395,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,33 +423,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>1.12</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/big_fit/fitness_scores.xlsx
+++ b/big_fit/fitness_scores.xlsx
@@ -31,22 +31,22 @@
     <t>fitness_score</t>
   </si>
   <si>
-    <t>CAGE3726</t>
-  </si>
-  <si>
-    <t>mDcaf7</t>
-  </si>
-  <si>
-    <t>g12</t>
-  </si>
-  <si>
-    <t>g20</t>
-  </si>
-  <si>
-    <t>CAGE3726.g12</t>
-  </si>
-  <si>
-    <t>CAGE3726.g20</t>
+    <t>SS120</t>
+  </si>
+  <si>
+    <t>hUBE2A</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>SS120.SCCOHT1.g1</t>
+  </si>
+  <si>
+    <t>SS120.SCCOHT1.g2</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>0.44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
